--- a/in2010402/files/09/9.xlsx
+++ b/in2010402/files/09/9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Py_scr\stat_grad\Informatics\in2010402\files\09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Учитель\Desktop\Dont_touch_me\Informatics\in2010402\files\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Погода" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K57" workbookViewId="0">
-      <selection activeCell="AX93" sqref="AX93"/>
+    <sheetView tabSelected="1" topLeftCell="W76" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,11 +551,11 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>IF(ABS(C2-B2) &lt; 2, 0, 1)</f>
+        <f>IF(B2-C2 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AW2" si="0">IF(ABS(D2-C2) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AB2:AW2" si="0">IF(C2-D2 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AC2">
@@ -576,7 +576,7 @@
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="AO2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <f t="shared" si="0"/>
@@ -720,100 +720,100 @@
         <v>15.3</v>
       </c>
       <c r="Z3">
-        <f>IF(ABS(B3-Y2) &lt; 2, 0, 1)</f>
+        <f>IF(Y2-B3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA66" si="1">IF(ABS(C3-B3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="Z3:AA66" si="1">IF(B3-C3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB66" si="2">IF(ABS(D3-C3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AB3:AB66" si="2">IF(C3-D3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC66" si="3">IF(ABS(E3-D3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AC3:AC66" si="3">IF(D3-E3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD66" si="4">IF(ABS(F3-E3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AD3:AD66" si="4">IF(E3-F3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE66" si="5">IF(ABS(G3-F3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AE3:AE66" si="5">IF(F3-G3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF66" si="6">IF(ABS(H3-G3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AF3:AF66" si="6">IF(G3-H3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG66" si="7">IF(ABS(I3-H3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AG3:AG66" si="7">IF(H3-I3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH66" si="8">IF(ABS(J3-I3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AH3:AH66" si="8">IF(I3-J3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="9">IF(ABS(K3-J3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AI3:AI66" si="9">IF(J3-K3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ66" si="10">IF(ABS(L3-K3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AJ3:AJ66" si="10">IF(K3-L3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK66" si="11">IF(ABS(M3-L3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AK3:AK66" si="11">IF(L3-M3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL66" si="12">IF(ABS(N3-M3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AL3:AL66" si="12">IF(M3-N3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM66" si="13">IF(ABS(O3-N3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AM3:AM66" si="13">IF(N3-O3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN66" si="14">IF(ABS(P3-O3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AN3:AN66" si="14">IF(O3-P3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO66" si="15">IF(ABS(Q3-P3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AO3:AO66" si="15">IF(P3-Q3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP66" si="16">IF(ABS(R3-Q3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AP3:AP66" si="16">IF(Q3-R3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ66" si="17">IF(ABS(S3-R3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AQ3:AQ66" si="17">IF(R3-S3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR66" si="18">IF(ABS(T3-S3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AR3:AR66" si="18">IF(S3-T3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS66" si="19">IF(ABS(U3-T3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AS3:AS66" si="19">IF(T3-U3 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT66" si="20">IF(ABS(V3-U3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AT3:AT66" si="20">IF(U3-V3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AU3">
-        <f t="shared" ref="AU3:AU66" si="21">IF(ABS(W3-V3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AU3:AU66" si="21">IF(V3-W3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV66" si="22">IF(ABS(X3-W3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AV3:AV66" si="22">IF(W3-X3 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW66" si="23">IF(ABS(Y3-X3) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AW3:AW66" si="23">IF(X3-Y3 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>16.5</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z67" si="24">IF(ABS(B4-Y3) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="Z4:Z67" si="24">IF(Y3-B4 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AA4">
@@ -922,11 +922,11 @@
       </c>
       <c r="AG4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <f t="shared" si="9"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="AJ4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <f t="shared" si="11"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="AN4">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <f t="shared" si="15"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="AW4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <f t="shared" si="3"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AE5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <f t="shared" si="6"/>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="AG5">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <f t="shared" si="9"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="AJ5">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <f t="shared" si="11"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AL5">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <f t="shared" si="13"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AQ5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <f t="shared" si="18"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" si="4"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="AG6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f t="shared" si="8"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AJ6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <f t="shared" si="11"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="AL6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <f t="shared" si="13"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="AP6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="17"/>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="AG7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <f t="shared" si="9"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="AM7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <f t="shared" si="14"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="AO7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <f t="shared" si="16"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="AR7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <f t="shared" si="19"/>
@@ -1614,11 +1614,11 @@
       </c>
       <c r="AG8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <f t="shared" si="9"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AJ8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <f t="shared" si="11"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="AB9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" si="3"/>
@@ -1787,11 +1787,11 @@
       </c>
       <c r="AG9">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" si="9"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="AL9">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <f t="shared" si="13"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="AN9">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
         <f t="shared" si="15"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="AP9">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="17"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="AW9">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <f t="shared" si="4"/>
@@ -1960,15 +1960,15 @@
       </c>
       <c r="AG10">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="10"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AL10">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <f t="shared" si="13"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="AQ10">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <f t="shared" si="18"/>
@@ -2133,11 +2133,11 @@
       </c>
       <c r="AG11">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <f t="shared" si="9"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="AJ11">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <f t="shared" si="11"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AL11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <f t="shared" si="13"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="AO11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <f t="shared" si="16"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AQ11">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <f t="shared" si="18"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AG12">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="AI12">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="10"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="AP12">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="17"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="AA13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <f t="shared" si="2"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AE13">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <f t="shared" si="6"/>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="AG13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <f t="shared" si="9"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="AJ13">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <f t="shared" si="11"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="AM13">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <f t="shared" si="14"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AP13">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="17"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="AR13">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <f t="shared" si="19"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="AG14">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" si="8"/>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="AJ14">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" si="11"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="AL14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <f t="shared" si="13"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="AO14">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <f t="shared" si="16"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="AG15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <f t="shared" si="8"/>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AI15">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="10"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AL15">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <f t="shared" si="13"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AP15">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="17"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="Z16">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <f t="shared" si="1"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="AG16">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <f t="shared" si="8"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="AJ16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <f t="shared" si="11"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <f t="shared" si="4"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="AG17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <f t="shared" si="8"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="AI17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="10"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="AK17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <f t="shared" si="12"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="AN17">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <f t="shared" si="15"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="AG18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <f t="shared" si="8"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="AI18">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="10"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AK18">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <f t="shared" si="12"/>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="AN18">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <f t="shared" si="15"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="AA19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <f t="shared" si="2"/>
@@ -3517,15 +3517,15 @@
       </c>
       <c r="AG19">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="10"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="AK19">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <f t="shared" si="12"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="AN19">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <f t="shared" si="15"/>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="AP19">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="17"/>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="AG20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <f t="shared" si="9"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="AL20">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <f t="shared" si="13"/>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="AQ20">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <f t="shared" si="18"/>
@@ -3863,11 +3863,11 @@
       </c>
       <c r="AG21">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <f t="shared" si="9"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="AJ21">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <f t="shared" si="11"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="AQ21">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21">
         <f t="shared" si="18"/>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="AH22">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="10"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AL22">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <f t="shared" si="13"/>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="AP22">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="17"/>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <f t="shared" si="2"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="AE23">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23">
         <f t="shared" si="6"/>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AG23">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <f t="shared" si="8"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="AI23">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="10"/>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="AK23">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <f t="shared" si="12"/>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="AM23">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f t="shared" si="14"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="AR23">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23">
         <f t="shared" si="19"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="AE24">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
         <f t="shared" si="6"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="AG24">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <f t="shared" si="8"/>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="AJ24">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <f t="shared" si="11"/>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="AL24">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
         <f t="shared" si="13"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="AP24">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="17"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="AR24">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24">
         <f t="shared" si="19"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="AE25">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <f t="shared" si="6"/>
@@ -4555,11 +4555,11 @@
       </c>
       <c r="AG25">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <f t="shared" si="9"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="AN25">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <f t="shared" si="15"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="AW25">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="AG26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <f t="shared" si="9"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="AJ26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
         <f t="shared" si="11"/>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="AN26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <f t="shared" si="15"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="AC27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <f t="shared" si="4"/>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="AG27">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <f t="shared" si="8"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="AJ27">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
         <f t="shared" si="11"/>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AB28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <f t="shared" si="3"/>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="AG28">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28">
         <f t="shared" si="8"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="AK28">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <f t="shared" si="12"/>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="AN28">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <f t="shared" si="16"/>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AC29">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <f t="shared" si="4"/>
@@ -5247,15 +5247,15 @@
       </c>
       <c r="AG29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="10"/>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="AN29">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <f t="shared" si="15"/>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="AG30">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <f t="shared" si="9"/>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="AJ30">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <f t="shared" si="11"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="AL30">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <f t="shared" si="13"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="AN30">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <f t="shared" si="15"/>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="AQ30">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <f t="shared" si="18"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="AW30">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="AG31">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <f t="shared" si="8"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="AJ31">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
         <f t="shared" si="11"/>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="AN31">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31">
         <f t="shared" si="15"/>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="Z32">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <f t="shared" si="1"/>
@@ -5766,11 +5766,11 @@
       </c>
       <c r="AG32">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <f t="shared" si="9"/>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="AJ32">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32">
         <f t="shared" si="11"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="AO32">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
         <f t="shared" si="16"/>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="AU32">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <f t="shared" si="22"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="AW32">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="AC33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <f t="shared" si="4"/>
@@ -5939,11 +5939,11 @@
       </c>
       <c r="AG33">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <f t="shared" si="9"/>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="AO33">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <f t="shared" si="16"/>
@@ -6112,15 +6112,15 @@
       </c>
       <c r="AG34">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="10"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="AM34">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
         <f t="shared" si="14"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="AA35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <f t="shared" si="2"/>
@@ -6285,11 +6285,11 @@
       </c>
       <c r="AG35">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <f t="shared" si="9"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="AN35">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <f t="shared" si="15"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="AP35">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="17"/>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="AR35">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35">
         <f t="shared" si="19"/>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="AG36">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36">
         <f t="shared" si="8"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="AK36">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <f t="shared" si="12"/>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="AN36">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36">
         <f t="shared" si="15"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="AQ36">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <f t="shared" si="18"/>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="AG37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
         <f t="shared" si="8"/>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="AI37">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="10"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <f t="shared" si="12"/>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="AW37">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="AG38">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38">
         <f t="shared" si="8"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="AJ38">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
         <f t="shared" si="11"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="AL38">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <f t="shared" si="13"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="AO38">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
         <f t="shared" si="16"/>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="AQ38">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38">
         <f t="shared" si="18"/>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="AG39">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
         <f t="shared" si="8"/>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="AK39">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <f t="shared" si="12"/>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="AM39">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39">
         <f t="shared" si="14"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="AO39">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <f t="shared" si="16"/>
@@ -7150,11 +7150,11 @@
       </c>
       <c r="AG40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <f t="shared" si="9"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="AJ40">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40">
         <f t="shared" si="11"/>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="AC41">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41">
         <f t="shared" si="4"/>
@@ -7323,15 +7323,15 @@
       </c>
       <c r="AG41">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="10"/>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="AO41">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <f t="shared" si="16"/>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="AR41">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41">
         <f t="shared" si="19"/>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="AW41">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="AG42">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42">
         <f t="shared" si="8"/>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="AI42">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="10"/>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="AN42">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42">
         <f t="shared" si="15"/>
@@ -7669,11 +7669,11 @@
       </c>
       <c r="AG43">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
         <f t="shared" si="9"/>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AM43">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43">
         <f t="shared" si="14"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="AW43">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="AB44">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <f t="shared" si="3"/>
@@ -7842,15 +7842,15 @@
       </c>
       <c r="AG44">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="10"/>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="AP44">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
         <f t="shared" si="17"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="AW44">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="AG45">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45">
         <f t="shared" si="8"/>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="AI45">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="10"/>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="AK45">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <f t="shared" si="12"/>
@@ -8047,11 +8047,11 @@
       </c>
       <c r="AO45">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <f t="shared" si="17"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AG46">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46">
         <f t="shared" si="8"/>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="AI46">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="10"/>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="AO46">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <f t="shared" si="16"/>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="AQ46">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <f t="shared" si="18"/>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="AC47">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47">
         <f t="shared" si="4"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="AG47">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47">
         <f t="shared" si="8"/>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="AI47">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="10"/>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="AL47">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <f t="shared" si="13"/>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="AP47">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="17"/>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="AR47">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS47">
         <f t="shared" si="19"/>
@@ -8534,15 +8534,15 @@
       </c>
       <c r="AG48">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="10"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="AL48">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
         <f t="shared" si="13"/>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="AO48">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
         <f t="shared" si="16"/>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="AB49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
         <f t="shared" si="3"/>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="AG49">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <f t="shared" si="8"/>
@@ -8719,11 +8719,11 @@
       </c>
       <c r="AJ49">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <f t="shared" si="12"/>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="AO49">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
         <f t="shared" si="16"/>
@@ -8880,15 +8880,15 @@
       </c>
       <c r="AG50">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="10"/>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="AO50">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50">
         <f t="shared" si="16"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="AB51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <f t="shared" si="3"/>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="AG51">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51">
         <f t="shared" si="8"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="AI51">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="10"/>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="AM51">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <f t="shared" si="14"/>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="AP51">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
         <f t="shared" si="17"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="AG52">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52">
         <f t="shared" si="8"/>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="AI52">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="10"/>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="AK52">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <f t="shared" si="12"/>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="AN52">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52">
         <f t="shared" si="15"/>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="AR52">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52">
         <f t="shared" si="19"/>
@@ -9399,11 +9399,11 @@
       </c>
       <c r="AG53">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53">
         <f t="shared" si="9"/>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="AL53">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
         <f t="shared" si="13"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="AW53">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="AG54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54">
         <f t="shared" si="8"/>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="AJ54">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54">
         <f t="shared" si="11"/>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="AP54">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
         <f t="shared" si="17"/>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="AR54">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54">
         <f t="shared" si="19"/>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="AA55">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <f t="shared" si="2"/>
@@ -9745,11 +9745,11 @@
       </c>
       <c r="AG55">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <f t="shared" si="9"/>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="AM55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55">
         <f t="shared" si="14"/>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="AO55">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55">
         <f t="shared" si="16"/>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="AB56">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
         <f t="shared" si="3"/>
@@ -9918,11 +9918,11 @@
       </c>
       <c r="AG56">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56">
         <f t="shared" si="9"/>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="AL56">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <f t="shared" si="13"/>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="AR56">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS56">
         <f t="shared" si="19"/>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="AC57">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57">
         <f t="shared" si="4"/>
@@ -10091,11 +10091,11 @@
       </c>
       <c r="AG57">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
         <f t="shared" si="9"/>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="AJ57">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57">
         <f t="shared" si="11"/>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="AM57">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57">
         <f t="shared" si="14"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="Z58">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <f t="shared" si="1"/>
@@ -10264,11 +10264,11 @@
       </c>
       <c r="AG58">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58">
         <f t="shared" si="9"/>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="AJ58">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58">
         <f t="shared" si="11"/>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="AM58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58">
         <f t="shared" si="14"/>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="AG59">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59">
         <f t="shared" si="8"/>
@@ -10449,11 +10449,11 @@
       </c>
       <c r="AJ59">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK59">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <f t="shared" si="12"/>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="AB60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <f t="shared" si="3"/>
@@ -10610,15 +10610,15 @@
       </c>
       <c r="AG60">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
         <f t="shared" si="10"/>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="AK60">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <f t="shared" si="12"/>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="AP60">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
         <f t="shared" si="17"/>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="AB61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
         <f t="shared" si="3"/>
@@ -10783,11 +10783,11 @@
       </c>
       <c r="AG61">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61">
         <f t="shared" si="9"/>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="AK61">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <f t="shared" si="12"/>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="AN61">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61">
         <f t="shared" si="15"/>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="AP61">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61">
         <f t="shared" si="17"/>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="AE62">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <f t="shared" si="6"/>
@@ -10956,15 +10956,15 @@
       </c>
       <c r="AG62">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62">
         <f t="shared" si="10"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="Z63">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <f t="shared" si="1"/>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="AC63">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63">
         <f t="shared" si="4"/>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="AG63">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63">
         <f t="shared" si="8"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="AI63">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63">
         <f t="shared" si="10"/>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="AK63">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <f t="shared" si="12"/>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="AM63">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63">
         <f t="shared" si="14"/>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="AO63">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63">
         <f t="shared" si="16"/>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="AG64">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <f t="shared" si="8"/>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="AJ64">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK64">
         <f t="shared" si="11"/>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="AB65">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
         <f t="shared" si="3"/>
@@ -11475,15 +11475,15 @@
       </c>
       <c r="AG65">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65">
         <f t="shared" si="10"/>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="AL65">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
         <f t="shared" si="13"/>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="AP65">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65">
         <f t="shared" si="17"/>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="AW65">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="AC66">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66">
         <f t="shared" si="4"/>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="AG66">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66">
         <f t="shared" si="8"/>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="AO66">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66">
         <f t="shared" si="16"/>
@@ -11796,95 +11796,95 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <f t="shared" ref="AA67:AA92" si="25">IF(ABS(C67-B67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AA67:AA92" si="25">IF(B67-C67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f t="shared" ref="AB67:AB92" si="26">IF(ABS(D67-C67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AB67:AB92" si="26">IF(C67-D67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="shared" ref="AC67:AC92" si="27">IF(ABS(E67-D67) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AC67:AC92" si="27">IF(D67-E67 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD92" si="28">IF(ABS(F67-E67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AD67:AD92" si="28">IF(E67-F67 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE92" si="29">IF(ABS(G67-F67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AE67:AE92" si="29">IF(F67-G67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF92" si="30">IF(ABS(H67-G67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AF67:AF92" si="30">IF(G67-H67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG92" si="31">IF(ABS(I67-H67) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AG67:AG92" si="31">IF(H67-I67 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AH67">
-        <f t="shared" ref="AH67:AH92" si="32">IF(ABS(J67-I67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AH67:AH92" si="32">IF(I67-J67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AI67">
-        <f t="shared" ref="AI67:AI92" si="33">IF(ABS(K67-J67) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AI67:AI92" si="33">IF(J67-K67 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AJ67">
-        <f t="shared" ref="AJ67:AJ92" si="34">IF(ABS(L67-K67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AJ67:AJ92" si="34">IF(K67-L67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AK67">
-        <f t="shared" ref="AK67:AK92" si="35">IF(ABS(M67-L67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AK67:AK92" si="35">IF(L67-M67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AL67">
-        <f t="shared" ref="AL67:AL92" si="36">IF(ABS(N67-M67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AL67:AL92" si="36">IF(M67-N67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AM67">
-        <f t="shared" ref="AM67:AM92" si="37">IF(ABS(O67-N67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AM67:AM92" si="37">IF(N67-O67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AN67">
-        <f t="shared" ref="AN67:AN92" si="38">IF(ABS(P67-O67) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AN67:AN92" si="38">IF(O67-P67 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO92" si="39">IF(ABS(Q67-P67) &lt; 2, 0, 1)</f>
-        <v>1</v>
+        <f t="shared" ref="AO67:AO92" si="39">IF(P67-Q67 &lt; 2, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <f t="shared" ref="AP67:AP92" si="40">IF(ABS(R67-Q67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AP67:AP92" si="40">IF(Q67-R67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AQ67">
-        <f t="shared" ref="AQ67:AQ92" si="41">IF(ABS(S67-R67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AQ67:AQ92" si="41">IF(R67-S67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AR67">
-        <f t="shared" ref="AR67:AR92" si="42">IF(ABS(T67-S67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AR67:AR92" si="42">IF(S67-T67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AS67">
-        <f t="shared" ref="AS67:AS92" si="43">IF(ABS(U67-T67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AS67:AS92" si="43">IF(T67-U67 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AT67">
-        <f t="shared" ref="AT67:AT92" si="44">IF(ABS(V67-U67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AT67:AT92" si="44">IF(U67-V67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AU67">
-        <f t="shared" ref="AU67:AU92" si="45">IF(ABS(W67-V67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AU67:AU92" si="45">IF(V67-W67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="AV67">
-        <f t="shared" ref="AV67:AV92" si="46">IF(ABS(X67-W67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AV67:AV92" si="46">IF(W67-X67 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AW67">
-        <f t="shared" ref="AW67:AW92" si="47">IF(ABS(Y67-X67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="AW67:AW92" si="47">IF(X67-Y67 &lt; 2, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11965,12 +11965,12 @@
         <v>25.7</v>
       </c>
       <c r="Z68">
-        <f t="shared" ref="Z68:Z92" si="48">IF(ABS(B68-Y67) &lt; 2, 0, 1)</f>
+        <f t="shared" ref="Z68:Z92" si="48">IF(Y67-B68 &lt; 2, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="AA68">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <f t="shared" si="26"/>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="AG68">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68">
         <f t="shared" si="32"/>
@@ -12002,7 +12002,7 @@
       </c>
       <c r="AI68">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68">
         <f t="shared" si="34"/>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="AK68">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <f t="shared" si="36"/>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="AR68">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS68">
         <f t="shared" si="43"/>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="AE69">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69">
         <f t="shared" si="30"/>
@@ -12167,15 +12167,15 @@
       </c>
       <c r="AG69">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH69">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69">
         <f t="shared" si="34"/>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="AR69">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS69">
         <f t="shared" si="43"/>
@@ -12340,11 +12340,11 @@
       </c>
       <c r="AG70">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH70">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI70">
         <f t="shared" si="33"/>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="AJ70">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK70">
         <f t="shared" si="35"/>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="AW70">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:49" x14ac:dyDescent="0.25">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="AG71">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH71">
         <f t="shared" si="32"/>
@@ -12521,11 +12521,11 @@
       </c>
       <c r="AI71">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ71">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK71">
         <f t="shared" si="35"/>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="AR71">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS71">
         <f t="shared" si="43"/>
@@ -12686,11 +12686,11 @@
       </c>
       <c r="AG72">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH72">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI72">
         <f t="shared" si="33"/>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="AK72">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <f t="shared" si="36"/>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="AN72">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO72">
         <f t="shared" si="39"/>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="AC73">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73">
         <f t="shared" si="28"/>
@@ -12859,15 +12859,15 @@
       </c>
       <c r="AG73">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH73">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI73">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ73">
         <f t="shared" si="34"/>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="AO73">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP73">
         <f t="shared" si="40"/>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="AR73">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73">
         <f t="shared" si="43"/>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="AG74">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74">
         <f t="shared" si="32"/>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="AI74">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74">
         <f t="shared" si="34"/>
@@ -13060,7 +13060,7 @@
       </c>
       <c r="AN74">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <f t="shared" si="39"/>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="AB75">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
         <f t="shared" si="27"/>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AG75">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH75">
         <f t="shared" si="32"/>
@@ -13213,11 +13213,11 @@
       </c>
       <c r="AI75">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ75">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK75">
         <f t="shared" si="35"/>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="AN75">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO75">
         <f t="shared" si="39"/>
@@ -13378,11 +13378,11 @@
       </c>
       <c r="AG76">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH76">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI76">
         <f t="shared" si="33"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="AJ76">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK76">
         <f t="shared" si="35"/>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="AW76">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:49" x14ac:dyDescent="0.25">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="AA77">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB77">
         <f t="shared" si="26"/>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="AG77">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH77">
         <f t="shared" si="32"/>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="AI77">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ77">
         <f t="shared" si="34"/>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="AL77">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
         <f t="shared" si="37"/>
@@ -13724,15 +13724,15 @@
       </c>
       <c r="AG78">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH78">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI78">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ78">
         <f t="shared" si="34"/>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="AK78">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <f t="shared" si="36"/>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="AO78">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP78">
         <f t="shared" si="40"/>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="AR78">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS78">
         <f t="shared" si="43"/>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="AB79">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
         <f t="shared" si="27"/>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="AG79">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH79">
         <f t="shared" si="32"/>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="AL79">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
         <f t="shared" si="37"/>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="AE80">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF80">
         <f t="shared" si="30"/>
@@ -14070,11 +14070,11 @@
       </c>
       <c r="AG80">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH80">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI80">
         <f t="shared" si="33"/>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="AK80">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <f t="shared" si="36"/>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="AO80">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80">
         <f t="shared" si="40"/>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AR80">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS80">
         <f t="shared" si="43"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="AG81">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH81">
         <f t="shared" si="32"/>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="AL81">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
         <f t="shared" si="37"/>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="AC82">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD82">
         <f t="shared" si="28"/>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="AG82">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH82">
         <f t="shared" si="32"/>
@@ -14424,11 +14424,11 @@
       </c>
       <c r="AI82">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ82">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK82">
         <f t="shared" si="35"/>
@@ -14436,7 +14436,7 @@
       </c>
       <c r="AL82">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
         <f t="shared" si="37"/>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="AN82">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO82">
         <f t="shared" si="39"/>
@@ -14589,7 +14589,7 @@
       </c>
       <c r="AG83">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH83">
         <f t="shared" si="32"/>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="AJ83">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK83">
         <f t="shared" si="35"/>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="AL83">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
         <f t="shared" si="37"/>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="AR83">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS83">
         <f t="shared" si="43"/>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="AC84">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD84">
         <f t="shared" si="28"/>
@@ -14762,11 +14762,11 @@
       </c>
       <c r="AG84">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH84">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84">
         <f t="shared" si="33"/>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="AJ84">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK84">
         <f t="shared" si="35"/>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="AL84">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
         <f t="shared" si="37"/>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="AN84">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO84">
         <f t="shared" si="39"/>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="AR84">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS84">
         <f t="shared" si="43"/>
@@ -14935,11 +14935,11 @@
       </c>
       <c r="AG85">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH85">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI85">
         <f t="shared" si="33"/>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="AJ85">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK85">
         <f t="shared" si="35"/>
@@ -14963,11 +14963,11 @@
       </c>
       <c r="AN85">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO85">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP85">
         <f t="shared" si="40"/>
@@ -15108,11 +15108,11 @@
       </c>
       <c r="AG86">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH86">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI86">
         <f t="shared" si="33"/>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="AK86">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <f t="shared" si="36"/>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="AO86">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP86">
         <f t="shared" si="40"/>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="Z87">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
         <f t="shared" si="25"/>
@@ -15281,11 +15281,11 @@
       </c>
       <c r="AG87">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH87">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI87">
         <f t="shared" si="33"/>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="AK87">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <f t="shared" si="36"/>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="AO87">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP87">
         <f t="shared" si="40"/>
@@ -15454,19 +15454,19 @@
       </c>
       <c r="AG88">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH88">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI88">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ88">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK88">
         <f t="shared" si="35"/>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="AM88">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN88">
         <f t="shared" si="38"/>
@@ -15627,11 +15627,11 @@
       </c>
       <c r="AG89">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH89">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI89">
         <f t="shared" si="33"/>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="AJ89">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK89">
         <f t="shared" si="35"/>
@@ -15659,7 +15659,7 @@
       </c>
       <c r="AO89">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP89">
         <f t="shared" si="40"/>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="AR89">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS89">
         <f t="shared" si="43"/>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="AA90">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
         <f t="shared" si="26"/>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="AE90">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF90">
         <f t="shared" si="30"/>
@@ -15800,11 +15800,11 @@
       </c>
       <c r="AG90">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH90">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI90">
         <f t="shared" si="33"/>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="AK90">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <f t="shared" si="36"/>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="AC91">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91">
         <f t="shared" si="28"/>
@@ -15973,11 +15973,11 @@
       </c>
       <c r="AG91">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH91">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI91">
         <f t="shared" si="33"/>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="AJ91">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK91">
         <f t="shared" si="35"/>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="AO91">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP91">
         <f t="shared" si="40"/>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="AA92">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB92">
         <f t="shared" si="26"/>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="AG92">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH92">
         <f t="shared" si="32"/>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="AI92">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ92">
         <f t="shared" si="34"/>
@@ -16162,11 +16162,11 @@
       </c>
       <c r="AK92">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
         <f t="shared" si="37"/>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="AX92" s="4">
         <f>SUM(Z2:AW92)</f>
-        <v>898</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
